--- a/Инфо/Функции.xlsx
+++ b/Инфо/Функции.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Compare</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>удаляет начальные и конечные пробелы из строки</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +151,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -166,7 +178,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -176,6 +188,129 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -184,12 +319,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,155 +632,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="89.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="85.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="18">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1"/>
+    <row r="2" spans="1:2" ht="26.4" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="18">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="18">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="18">
-      <c r="B9" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="18">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18">
-      <c r="B13" s="1" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="18">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="18">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:2" ht="18">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="18">
-      <c r="B17" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="18">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="18">
-      <c r="B20" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="18">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="18">
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="18">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
